--- a/Code/Results/Cases/Case_13_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_13_0/res_line/loading_percent.xlsx
@@ -427,28 +427,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.44307359118704</v>
+        <v>29.12242425684365</v>
       </c>
       <c r="C2">
-        <v>18.84945595138836</v>
+        <v>23.02353161545612</v>
       </c>
       <c r="D2">
-        <v>10.02066305241336</v>
+        <v>5.457562313420514</v>
       </c>
       <c r="E2">
-        <v>29.10526702065993</v>
+        <v>29.30942974478529</v>
       </c>
       <c r="F2">
-        <v>63.03962927701833</v>
+        <v>42.83252900737337</v>
       </c>
       <c r="G2">
-        <v>2.074527469938671</v>
+        <v>2.069037592771776</v>
       </c>
       <c r="H2">
-        <v>3.089966362669392</v>
+        <v>3.219152413621614</v>
       </c>
       <c r="I2">
-        <v>3.037267292020123</v>
+        <v>3.413434991520969</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>13.37876734696289</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -480,28 +480,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.75403469952843</v>
+        <v>27.1374243989585</v>
       </c>
       <c r="C3">
-        <v>17.53033396951019</v>
+        <v>21.40733941091886</v>
       </c>
       <c r="D3">
-        <v>9.477274155190834</v>
+        <v>5.337267986424786</v>
       </c>
       <c r="E3">
-        <v>27.02775996347093</v>
+        <v>27.25656006138376</v>
       </c>
       <c r="F3">
-        <v>59.07048019432784</v>
+        <v>40.45473511116975</v>
       </c>
       <c r="G3">
-        <v>2.084514762941586</v>
+        <v>2.078198967281577</v>
       </c>
       <c r="H3">
-        <v>2.711583836633365</v>
+        <v>2.859703050369023</v>
       </c>
       <c r="I3">
-        <v>2.666704839883651</v>
+        <v>3.074111969351026</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>13.44169929310584</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -533,28 +533,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.65952378285824</v>
+        <v>25.87105930567509</v>
       </c>
       <c r="C4">
-        <v>16.68690558818472</v>
+        <v>20.36552448339359</v>
       </c>
       <c r="D4">
-        <v>9.126601439550928</v>
+        <v>5.260392023805906</v>
       </c>
       <c r="E4">
-        <v>25.68821643124625</v>
+        <v>25.9310335883985</v>
       </c>
       <c r="F4">
-        <v>56.50830951348823</v>
+        <v>38.9386664220199</v>
       </c>
       <c r="G4">
-        <v>2.090765124095499</v>
+        <v>2.083948925629955</v>
       </c>
       <c r="H4">
-        <v>2.473648940128331</v>
+        <v>2.633168838164859</v>
       </c>
       <c r="I4">
-        <v>2.509508808433992</v>
+        <v>2.861811536839314</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>13.48005957020183</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -586,28 +586,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.19839618377675</v>
+        <v>25.32578769390431</v>
       </c>
       <c r="C5">
-        <v>16.35017261237931</v>
+        <v>19.93426239784606</v>
       </c>
       <c r="D5">
-        <v>8.962248306382884</v>
+        <v>5.224182377235195</v>
       </c>
       <c r="E5">
-        <v>25.1250067760214</v>
+        <v>25.37362898793707</v>
       </c>
       <c r="F5">
-        <v>55.35697436933109</v>
+        <v>38.28229444321997</v>
       </c>
       <c r="G5">
-        <v>2.093373239817404</v>
+        <v>2.086343736601319</v>
       </c>
       <c r="H5">
-        <v>2.374520949779008</v>
+        <v>2.538891211510318</v>
       </c>
       <c r="I5">
-        <v>2.613255113535315</v>
+        <v>2.774232242323455</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>13.49076358101514</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -639,28 +639,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.12034009970148</v>
+        <v>25.21926499381419</v>
       </c>
       <c r="C6">
-        <v>16.31276175098225</v>
+        <v>19.86909335459384</v>
       </c>
       <c r="D6">
-        <v>8.913715193426158</v>
+        <v>5.213083032900629</v>
       </c>
       <c r="E6">
-        <v>25.02928931015711</v>
+        <v>25.27925579919151</v>
       </c>
       <c r="F6">
-        <v>55.07122712887607</v>
+        <v>38.14214131045867</v>
       </c>
       <c r="G6">
-        <v>2.093843404499031</v>
+        <v>2.086765773327855</v>
       </c>
       <c r="H6">
-        <v>2.357148475066212</v>
+        <v>2.522620236960007</v>
       </c>
       <c r="I6">
-        <v>2.635588437125068</v>
+        <v>2.759813657969449</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>13.48663518098441</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -692,28 +692,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.65169548959532</v>
+        <v>25.82386594742595</v>
       </c>
       <c r="C7">
-        <v>16.73292013436325</v>
+        <v>20.37891803677698</v>
       </c>
       <c r="D7">
-        <v>9.067926423508622</v>
+        <v>5.24621841167165</v>
       </c>
       <c r="E7">
-        <v>25.67736305216642</v>
+        <v>25.92137325416789</v>
       </c>
       <c r="F7">
-        <v>56.24481937174074</v>
+        <v>38.84853422600711</v>
       </c>
       <c r="G7">
-        <v>2.090896024981767</v>
+        <v>2.084041586545941</v>
       </c>
       <c r="H7">
-        <v>2.470075046960208</v>
+        <v>2.630487630487425</v>
       </c>
       <c r="I7">
-        <v>2.524493452909088</v>
+        <v>2.860669597260886</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>13.46411645950251</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -745,28 +745,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.870143067299</v>
+        <v>28.39101441007527</v>
       </c>
       <c r="C8">
-        <v>18.46235242138411</v>
+        <v>22.49958675012746</v>
       </c>
       <c r="D8">
-        <v>9.765799130928215</v>
+        <v>5.398999121240402</v>
       </c>
       <c r="E8">
-        <v>28.39744764467337</v>
+        <v>28.61202614888293</v>
       </c>
       <c r="F8">
-        <v>61.38995501941691</v>
+        <v>41.92355994330617</v>
       </c>
       <c r="G8">
-        <v>2.078075537225312</v>
+        <v>2.072250082095517</v>
       </c>
       <c r="H8">
-        <v>2.957617360055809</v>
+        <v>3.094540212180184</v>
       </c>
       <c r="I8">
-        <v>2.908925381665187</v>
+        <v>3.296299062931547</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>13.3793457196131</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.77635781228673</v>
+        <v>33.0895634734422</v>
       </c>
       <c r="C9">
-        <v>21.51752086636726</v>
+        <v>26.24400022884295</v>
       </c>
       <c r="D9">
-        <v>11.09435833615976</v>
+        <v>5.698493296056921</v>
       </c>
       <c r="E9">
-        <v>33.24354161310295</v>
+        <v>33.386799994948</v>
       </c>
       <c r="F9">
-        <v>70.89697344570428</v>
+        <v>47.63182860177298</v>
       </c>
       <c r="G9">
-        <v>2.053570185398751</v>
+        <v>2.049914329690132</v>
       </c>
       <c r="H9">
-        <v>3.877518438033591</v>
+        <v>3.964171270026597</v>
       </c>
       <c r="I9">
-        <v>3.818003966742009</v>
+        <v>4.12457982399691</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>13.24067711716932</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -851,28 +851,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.36896984993525</v>
+        <v>36.0434723756846</v>
       </c>
       <c r="C10">
-        <v>23.60291155827736</v>
+        <v>28.63441750164197</v>
       </c>
       <c r="D10">
-        <v>11.73454473692673</v>
+        <v>5.830995088903073</v>
       </c>
       <c r="E10">
-        <v>35.62103610224544</v>
+        <v>35.71059044858454</v>
       </c>
       <c r="F10">
-        <v>76.20990935265392</v>
+        <v>51.13791178948935</v>
       </c>
       <c r="G10">
-        <v>2.036709757866656</v>
+        <v>2.034521241778429</v>
       </c>
       <c r="H10">
-        <v>4.482358605421413</v>
+        <v>4.534438610626464</v>
       </c>
       <c r="I10">
-        <v>4.449622519871673</v>
+        <v>4.698664340282644</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>13.06500675699586</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -904,28 +904,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.36121202343197</v>
+        <v>36.02269999258484</v>
       </c>
       <c r="C11">
-        <v>24.30366210427836</v>
+        <v>28.45708531374927</v>
       </c>
       <c r="D11">
-        <v>9.970562816033523</v>
+        <v>5.314150617902084</v>
       </c>
       <c r="E11">
-        <v>29.02521488677462</v>
+        <v>29.16197763703897</v>
       </c>
       <c r="F11">
-        <v>69.78476296936714</v>
+        <v>49.38345475826942</v>
       </c>
       <c r="G11">
-        <v>2.03570407727512</v>
+        <v>2.03254108020656</v>
       </c>
       <c r="H11">
-        <v>4.790747882991368</v>
+        <v>4.85817995592064</v>
       </c>
       <c r="I11">
-        <v>4.510909130059678</v>
+        <v>4.774015261544365</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>12.41367954742661</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -957,28 +957,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.68585877720369</v>
+        <v>35.45132614581257</v>
       </c>
       <c r="C12">
-        <v>24.44128593523203</v>
+        <v>27.80348711356223</v>
       </c>
       <c r="D12">
-        <v>8.470649040072542</v>
+        <v>4.902634528648329</v>
       </c>
       <c r="E12">
-        <v>23.0426619106675</v>
+        <v>23.22781200176598</v>
       </c>
       <c r="F12">
-        <v>63.59460163662632</v>
+        <v>47.2578856750118</v>
       </c>
       <c r="G12">
-        <v>2.037548408334782</v>
+        <v>2.033596121678061</v>
       </c>
       <c r="H12">
-        <v>5.512775492837027</v>
+        <v>5.582613299285839</v>
       </c>
       <c r="I12">
-        <v>4.456295562001463</v>
+        <v>4.732397001373103</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>11.97410097664093</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1010,28 +1010,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.52803904234584</v>
+        <v>34.36056989042019</v>
       </c>
       <c r="C13">
-        <v>24.22003956114179</v>
+        <v>26.74867764636883</v>
       </c>
       <c r="D13">
-        <v>7.009883965657012</v>
+        <v>4.535521992404589</v>
       </c>
       <c r="E13">
-        <v>17.05336036085701</v>
+        <v>17.30423646035947</v>
       </c>
       <c r="F13">
-        <v>56.73539812628097</v>
+        <v>44.55714983913662</v>
       </c>
       <c r="G13">
-        <v>2.041798004963339</v>
+        <v>2.037103107177901</v>
       </c>
       <c r="H13">
-        <v>6.450362237943956</v>
+        <v>6.5172900259235</v>
       </c>
       <c r="I13">
-        <v>4.308155851271346</v>
+        <v>4.598145302969217</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>11.65383825406395</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1063,28 +1063,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.20074615630609</v>
+        <v>33.34101321820851</v>
       </c>
       <c r="C14">
-        <v>23.91840789243268</v>
+        <v>25.82294158201565</v>
       </c>
       <c r="D14">
-        <v>6.025607134096393</v>
+        <v>4.309114174977028</v>
       </c>
       <c r="E14">
-        <v>12.91878041738623</v>
+        <v>13.23754183903135</v>
       </c>
       <c r="F14">
-        <v>51.49898527829699</v>
+        <v>42.3561915673402</v>
       </c>
       <c r="G14">
-        <v>2.045765259257151</v>
+        <v>2.040608279471432</v>
       </c>
       <c r="H14">
-        <v>7.201276089694248</v>
+        <v>7.264252431868699</v>
       </c>
       <c r="I14">
-        <v>4.16614545595082</v>
+        <v>4.464898670560597</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>11.49213779797367</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1116,28 +1116,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.01509405687257</v>
+        <v>32.9648862501232</v>
       </c>
       <c r="C15">
-        <v>23.77999269105106</v>
+        <v>25.51230040168827</v>
       </c>
       <c r="D15">
-        <v>5.778124340762592</v>
+        <v>4.257088291712681</v>
       </c>
       <c r="E15">
-        <v>11.90505057293832</v>
+        <v>12.24706028960986</v>
       </c>
       <c r="F15">
-        <v>49.98084492291337</v>
+        <v>41.66581721299364</v>
       </c>
       <c r="G15">
-        <v>2.047349627796285</v>
+        <v>2.042053549585688</v>
       </c>
       <c r="H15">
-        <v>7.37155626470092</v>
+        <v>7.433725654074647</v>
       </c>
       <c r="I15">
-        <v>4.109105430901421</v>
+        <v>4.411213507189735</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>11.46914446365359</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1169,28 +1169,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.98938299365462</v>
+        <v>31.87608673764142</v>
       </c>
       <c r="C16">
-        <v>23.00271204771266</v>
+        <v>24.67704261173039</v>
       </c>
       <c r="D16">
-        <v>5.728103560500506</v>
+        <v>4.270210178006453</v>
       </c>
       <c r="E16">
-        <v>11.57793924659197</v>
+        <v>11.94105676579287</v>
       </c>
       <c r="F16">
-        <v>48.56665406277664</v>
+        <v>40.52409631443208</v>
       </c>
       <c r="G16">
-        <v>2.053498711515744</v>
+        <v>2.047802731150009</v>
       </c>
       <c r="H16">
-        <v>7.055752869198356</v>
+        <v>7.12150906140563</v>
       </c>
       <c r="I16">
-        <v>3.877767251533557</v>
+        <v>4.199051954891138</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>11.6109875496389</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1222,28 +1222,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.36448092993919</v>
+        <v>31.59081828550146</v>
       </c>
       <c r="C17">
-        <v>22.55793443121987</v>
+        <v>24.54023630133161</v>
       </c>
       <c r="D17">
-        <v>6.19513540705</v>
+        <v>4.392134655494539</v>
       </c>
       <c r="E17">
-        <v>13.59355848671587</v>
+        <v>13.92327043899569</v>
       </c>
       <c r="F17">
-        <v>50.37157133274903</v>
+        <v>40.8602284027189</v>
       </c>
       <c r="G17">
-        <v>2.056209579269872</v>
+        <v>2.050415076146294</v>
       </c>
       <c r="H17">
-        <v>6.353811635908204</v>
+        <v>6.426382675262424</v>
       </c>
       <c r="I17">
-        <v>3.772518732282649</v>
+        <v>4.104955505081555</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>11.7975146447877</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1275,28 +1275,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.0326828153557</v>
+        <v>32.01266221312296</v>
       </c>
       <c r="C18">
-        <v>22.33313476896589</v>
+        <v>24.99574270966277</v>
       </c>
       <c r="D18">
-        <v>7.282784649532969</v>
+        <v>4.659682672957626</v>
       </c>
       <c r="E18">
-        <v>18.16992540045136</v>
+        <v>18.43728141267208</v>
       </c>
       <c r="F18">
-        <v>55.3707338003543</v>
+        <v>42.57297928984077</v>
       </c>
       <c r="G18">
-        <v>2.055887887705688</v>
+        <v>2.050369575357616</v>
       </c>
       <c r="H18">
-        <v>5.333293727927019</v>
+        <v>5.417158518650544</v>
       </c>
       <c r="I18">
-        <v>3.773529732633144</v>
+        <v>4.10792768057442</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>12.08228754755286</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1328,28 +1328,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.97345199471054</v>
+        <v>32.91428265727141</v>
       </c>
       <c r="C19">
-        <v>22.4033883500889</v>
+        <v>25.92709831785335</v>
       </c>
       <c r="D19">
-        <v>8.790375362995041</v>
+        <v>5.046921090650943</v>
       </c>
       <c r="E19">
-        <v>24.53208797344972</v>
+        <v>24.73815109591906</v>
       </c>
       <c r="F19">
-        <v>62.1806771869171</v>
+        <v>45.11864271034842</v>
       </c>
       <c r="G19">
-        <v>2.052752511625638</v>
+        <v>2.04795465780415</v>
       </c>
       <c r="H19">
-        <v>4.411514987705797</v>
+        <v>4.505350713937855</v>
       </c>
       <c r="I19">
-        <v>3.879578676368524</v>
+        <v>4.201341048233777</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>12.44996205798263</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1381,28 +1381,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.69820850587216</v>
+        <v>35.18532413088438</v>
       </c>
       <c r="C20">
-        <v>23.17917654727976</v>
+        <v>28.05782744234055</v>
       </c>
       <c r="D20">
-        <v>11.41151704201456</v>
+        <v>5.75501748214636</v>
       </c>
       <c r="E20">
-        <v>34.95363493126855</v>
+        <v>35.0635044301351</v>
       </c>
       <c r="F20">
-        <v>74.17869503357267</v>
+        <v>50.01271585242392</v>
       </c>
       <c r="G20">
-        <v>2.041462083656163</v>
+        <v>2.038744722034453</v>
       </c>
       <c r="H20">
-        <v>4.314225926561374</v>
+        <v>4.378823149754055</v>
       </c>
       <c r="I20">
-        <v>4.278525854025554</v>
+        <v>4.545497348120654</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>13.05914361158725</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1434,28 +1434,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.63458094084674</v>
+        <v>37.60410681397683</v>
       </c>
       <c r="C21">
-        <v>24.75784781552005</v>
+        <v>30.04120099125489</v>
       </c>
       <c r="D21">
-        <v>12.27927442675885</v>
+        <v>5.965210850010251</v>
       </c>
       <c r="E21">
-        <v>38.09980501401512</v>
+        <v>38.14978486046395</v>
       </c>
       <c r="F21">
-        <v>79.78419766314934</v>
+        <v>53.24885792036237</v>
       </c>
       <c r="G21">
-        <v>2.027249542232134</v>
+        <v>2.026048842488905</v>
       </c>
       <c r="H21">
-        <v>4.857352354950227</v>
+        <v>4.886079521493445</v>
       </c>
       <c r="I21">
-        <v>4.805519619189777</v>
+        <v>5.01815482679849</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>13.03976532144044</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1487,28 +1487,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.85232260185697</v>
+        <v>39.08938018609194</v>
       </c>
       <c r="C22">
-        <v>25.7093163221756</v>
+        <v>31.20984196780294</v>
       </c>
       <c r="D22">
-        <v>12.77195792536501</v>
+        <v>6.081779563242853</v>
       </c>
       <c r="E22">
-        <v>39.65220401541557</v>
+        <v>39.6612641198891</v>
       </c>
       <c r="F22">
-        <v>83.08140148289172</v>
+        <v>55.20015203280625</v>
       </c>
       <c r="G22">
-        <v>2.018208876805866</v>
+        <v>2.01799549018383</v>
       </c>
       <c r="H22">
-        <v>5.187829086509634</v>
+        <v>5.192950727496313</v>
       </c>
       <c r="I22">
-        <v>5.140100061090803</v>
+        <v>5.317053975957242</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>13.01478655940469</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1540,28 +1540,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.20893271165753</v>
+        <v>38.3363028547522</v>
       </c>
       <c r="C23">
-        <v>25.16305894123705</v>
+        <v>30.57376622537857</v>
       </c>
       <c r="D23">
-        <v>12.56410863771151</v>
+        <v>6.034294527975277</v>
       </c>
       <c r="E23">
-        <v>38.83252030482961</v>
+        <v>38.86161477420278</v>
       </c>
       <c r="F23">
-        <v>81.55397815487034</v>
+        <v>54.2361464001029</v>
       </c>
       <c r="G23">
-        <v>2.022918405131028</v>
+        <v>2.022226197195321</v>
       </c>
       <c r="H23">
-        <v>5.014325094539056</v>
+        <v>5.030911046414971</v>
       </c>
       <c r="I23">
-        <v>4.96347957896903</v>
+        <v>5.158508503327936</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>13.04675674622192</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -1593,28 +1593,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.68185813993916</v>
+        <v>35.31861004282749</v>
       </c>
       <c r="C24">
-        <v>23.11238178875517</v>
+        <v>28.11630933623611</v>
       </c>
       <c r="D24">
-        <v>11.66976099974378</v>
+        <v>5.827425069724348</v>
       </c>
       <c r="E24">
-        <v>35.63223609375809</v>
+        <v>35.73341028950765</v>
       </c>
       <c r="F24">
-        <v>75.24053863113274</v>
+        <v>50.37637003397209</v>
       </c>
       <c r="G24">
-        <v>2.04088703992831</v>
+        <v>2.038380818390848</v>
       </c>
       <c r="H24">
-        <v>4.351378196554124</v>
+        <v>4.411048834133488</v>
       </c>
       <c r="I24">
-        <v>4.293550467567776</v>
+        <v>4.555896700817713</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>13.14098249754714</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -1646,28 +1646,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.76275660477796</v>
+        <v>31.81816931407905</v>
       </c>
       <c r="C25">
-        <v>20.79094544270774</v>
+        <v>25.29905695135953</v>
       </c>
       <c r="D25">
-        <v>10.65831984704363</v>
+        <v>5.596600415070315</v>
       </c>
       <c r="E25">
-        <v>31.97679880725834</v>
+        <v>32.14356109270349</v>
       </c>
       <c r="F25">
-        <v>68.04404505137312</v>
+        <v>46.01060943009153</v>
       </c>
       <c r="G25">
-        <v>2.060308407478158</v>
+        <v>2.055980476337377</v>
       </c>
       <c r="H25">
-        <v>3.628166126820007</v>
+        <v>3.730515494968214</v>
       </c>
       <c r="I25">
-        <v>3.571692568677724</v>
+        <v>3.901720770525965</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>13.2493814597989</v>
       </c>
       <c r="Q25">
         <v>0</v>
